--- a/biology/Botanique/Pavier_rouge/Pavier_rouge.xlsx
+++ b/biology/Botanique/Pavier_rouge/Pavier_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aesculus pavia
 Le Pavier rouge, Aesculus pavia, est un petit arbre de la famille des Sapindacées, originaire du sud des États-Unis, fréquemment cultivé comme arbre d'ornement pour ses belles fleurs rouges.
@@ -517,7 +529,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pavia rubra Poir.
 </t>
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pavier rouge est un petit arbre, ou un grand arbuste, de 5 à 8 mètres de haut, atteignant rarement 10 mètres ; il pousse parfois sous forme de touffes à plusieurs tiges.
 Les feuilles, caduques, sont opposées et composées-palmées. Les folioles, en règle générale au nombre de cinq, sont de forme elliptique de 10 à 15 cm de long se terminant en pointe aiguë, à bords finement dentés.
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire du centre et du sud des États-Unis : Illinois, Missouri, Oklahoma, Alabama, Arkansas, Floride, Géorgie, Kentucky, Louisiane, Mississippi, Caroline du Nord et du Sud, Tennessee, Texas.
 </t>
@@ -613,7 +631,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre planté pour l'ornement dont il existe diverses variétés, notamment la forme 'Humilis' à croissance lente.
 Le Pavier rouge s'est hybridé en culture avec le marronnier commun (A. hippocastanum) pour donner le marronnier à fleurs rouges (Aesculus × carnea Hayne). Cet hybride est un arbre de taille moyenne de 20 à 25 mètres de haut, présentant des caractères intermédiaires à plusieurs égards entre ses deux parents, mais qui a hérité la couleur rouge des fleurs d' Aesculus pavia. C'est un arbre répandu dans les parcs et les grands jardins, souvent sous la forme du cultivar 'Briotii'. Des hybrides du pavier rouge se sont formés aussi avec le pavier jaune (Aesculus flava) et sont désignés sous le nom d'Aesculus × hybrida.
